--- a/medicine/Enfance/Les_Garçons_de_la_rue_Paul_(roman)/Les_Garçons_de_la_rue_Paul_(roman).xlsx
+++ b/medicine/Enfance/Les_Garçons_de_la_rue_Paul_(roman)/Les_Garçons_de_la_rue_Paul_(roman).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Gar%C3%A7ons_de_la_rue_Paul_(roman)</t>
+          <t>Les_Garçons_de_la_rue_Paul_(roman)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Garçons de la rue Paul, également connu sous le titre Les Gars de la rue Paul (titre original : A Pál-utcai fiúk) est un roman hongrois pour la jeunesse écrit par Ferenc Molnár, publié en 1906.
-Le livre est paru en France pour la première fois en 1937 sous le titre Les Gars de la rue Paul[1].
+Le livre est paru en France pour la première fois en 1937 sous le titre Les Gars de la rue Paul.
 Considéré comme le livre hongrois le plus connu dans le monde, et qui a rendu célèbre son auteur, ce classique de la littérature pour la jeunesse a été traduit dans de nombreuses langues et a été adapté au cinéma. En 2005 il a été classé second des romans préféré des Hongrois lors d'une enquête réalisée par le sondage littéraire The Big Read version hongroise. En hommage, plusieurs statues représentant les jeunes héros du livre, ont été érigées à Budapest.
 Également destiné aux adultes, le roman se veut une dénonciation du manque d'espaces de jeux pour les enfants. Au fil du temps, des critiques y ont également vu un antimilitarisme à travers les jeunes protagonistes du roman, victimes psychologiques de la violence injuste du « système de guerre » typique des adultes.
 </t>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Gar%C3%A7ons_de_la_rue_Paul_(roman)</t>
+          <t>Les_Garçons_de_la_rue_Paul_(roman)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1889, à Budapest, des écoliers du quartier Józsefváros passent leur temps libre dans l'unique terrain vague de la ville, terrain qu'ils considèrent comme leur "patrie". Aussi, lorsqu'une autre bande de garçons appelés « les Chemises rouges », tentent de s'emparer du terrain, les écoliers de Józsefváros sont obligés de se défendre à la manière militaire...
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Gar%C3%A7ons_de_la_rue_Paul_(roman)</t>
+          <t>Les_Garçons_de_la_rue_Paul_(roman)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Adaptations au cinéma et à la télévision</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1917 : A Pál-utcai fiúk, film muet hongrois de Béla Balogh
 1929 : A Pál-utcai fiúk, film hongrois muet de Béla Balogh (nouveau film du même réalisateur)
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Gar%C3%A7ons_de_la_rue_Paul_(roman)</t>
+          <t>Les_Garçons_de_la_rue_Paul_(roman)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,13 +597,15 @@
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1937 : Les Gars de la rue Paul, de François[2]Molnar ; traduit par André Adorjan et Ladislas Gara, illustrations de Tibor Gergely ; Paris, coll. « Collection Maïa », Série B ; no 21 ; Stock, 245 p. [3]
-1958 : Les Garçons de la rue Paul de François Molnar ; traduit par André Adorjan et Ladislas Gara, illustrations de Paul Durand ; Paris, Hachette, coll. « Bibliothèque verte » no 38, 253 p. [4]
-1977 : Les Garçons de la rue Paul, de Ferenc Molnar ; traduit par André Adorjan et Ladislas Gara, illustrations de Paul Durand ; Paris : Hachette, coll. « Bibliothèque Rose », 250 p. [5],  (ISBN 2-01-003635-2).
-1979 : Les Gars de la rue Paul, de Ferenc Molnar ; traduit par André Adorjan et Ladislas Gara, illustrations de Tibor Gergely ; Paris : Le Livre de poche, coll. « Le Livre de poche jeunesse » ; no 16, 250 p. [5],  (ISBN 2-253-02348-5). Réédition : Hachette, 1988,  (ISBN 2-01-014779-0)
-2007 : Les Gars de la rue Paul, de Ferenc Molnar ; traduit par André Adorjan et Ladislas Gara, illustrations de Tibor Gergely ; Paris : Hachette livre, coll. Le Livre de poche jeunesse. Classique no 16, 253 p. [6],  (ISBN 978-2-01-322474-1)</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1937 : Les Gars de la rue Paul, de FrançoisMolnar ; traduit par André Adorjan et Ladislas Gara, illustrations de Tibor Gergely ; Paris, coll. « Collection Maïa », Série B ; no 21 ; Stock, 245 p. 
+1958 : Les Garçons de la rue Paul de François Molnar ; traduit par André Adorjan et Ladislas Gara, illustrations de Paul Durand ; Paris, Hachette, coll. « Bibliothèque verte » no 38, 253 p. 
+1977 : Les Garçons de la rue Paul, de Ferenc Molnar ; traduit par André Adorjan et Ladislas Gara, illustrations de Paul Durand ; Paris : Hachette, coll. « Bibliothèque Rose », 250 p. ,  (ISBN 2-01-003635-2).
+1979 : Les Gars de la rue Paul, de Ferenc Molnar ; traduit par André Adorjan et Ladislas Gara, illustrations de Tibor Gergely ; Paris : Le Livre de poche, coll. « Le Livre de poche jeunesse » ; no 16, 250 p. ,  (ISBN 2-253-02348-5). Réédition : Hachette, 1988,  (ISBN 2-01-014779-0)
+2007 : Les Gars de la rue Paul, de Ferenc Molnar ; traduit par André Adorjan et Ladislas Gara, illustrations de Tibor Gergely ; Paris : Hachette livre, coll. Le Livre de poche jeunesse. Classique no 16, 253 p. ,  (ISBN 978-2-01-322474-1)</t>
         </is>
       </c>
     </row>
